--- a/NiTiErp/wwwroot/templates/SoDKVBDen.xlsx
+++ b/NiTiErp/wwwroot/templates/SoDKVBDen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>vv</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>(2)</t>
+  </si>
+  <si>
+    <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Độc lập - Tự do - Hạnh phúc</t>
+  </si>
+  <si>
+    <t>An Giang, ngày …… tháng …… năm 2019</t>
+  </si>
+  <si>
+    <t>Người lập</t>
   </si>
 </sst>
 </file>
@@ -87,7 +99,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -141,6 +153,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -341,7 +359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -462,10 +480,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -476,6 +497,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -493,6 +520,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="600075"/>
+          <a:ext cx="1000125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -758,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K29"/>
+  <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I6"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -772,50 +848,59 @@
     <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="2:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="H2" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="2:11" s="40" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="H3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-    </row>
-    <row r="7" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="2:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -825,7 +910,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -834,13 +919,13 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:11" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+    <row r="9" spans="2:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="2:11" s="5" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="28" t="s">
@@ -926,77 +1011,90 @@
       <c r="H14" s="19"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="2:11" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="2:11" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="2:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:5" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" spans="2:9" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="2:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="2:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="2:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="2:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="2:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="2:5" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="2:5" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="2:5" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="2:5" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="2:5" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="2:5" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
       <c r="E29" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B6:I6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.2" bottom="0.2" header="0.31458333333333299" footer="0.27500000000000002"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
